--- a/biology/Médecine/Veeva_Systems/Veeva_Systems.xlsx
+++ b/biology/Médecine/Veeva_Systems/Veeva_Systems.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Veeva Systems (NYSE : VEEV) est un éditeur américain de solutions dans le cloud. Ses solutions sont spécialisées pour l'industrie pharmaceutique [4].
+Veeva Systems (NYSE : VEEV) est un éditeur américain de solutions dans le cloud. Ses solutions sont spécialisées pour l'industrie pharmaceutique .
 L'entreprise a été fondée en 2007 à Pleasanton, Californie, où se trouve son siège social.
 Depuis février 2012, l'entreprise possède un établissement en France.
-En 2013, la société s’introduit en bourse. Au 21 août 2020, elle comptait une capitalisation boursière de 40 milliards de dollars américains[5].
-Le 1er février 2021, Veeva Systems est devenue la première et la plus grande société cotée en bourse à se convertir en PBC[6].
+En 2013, la société s’introduit en bourse. Au 21 août 2020, elle comptait une capitalisation boursière de 40 milliards de dollars américains.
+Le 1er février 2021, Veeva Systems est devenue la première et la plus grande société cotée en bourse à se convertir en PBC.
 </t>
         </is>
       </c>
@@ -516,9 +528,11 @@
           <t>Actionnaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des principaux actionnaires au 10 novembre 2021[7] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des principaux actionnaires au 10 novembre 2021 :
 </t>
         </is>
       </c>
@@ -547,10 +561,12 @@
           <t>Acquisitions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2015, Veeva a acquis Zinc Ahead[8], une société de solutions de gestion de contenus commerciaux.
-En 2019, Veeva a acquis Crossix, une société qui offre des données et analyses sécurisées sur les patients aux États-Unis[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, Veeva a acquis Zinc Ahead, une société de solutions de gestion de contenus commerciaux.
+En 2019, Veeva a acquis Crossix, une société qui offre des données et analyses sécurisées sur les patients aux États-Unis.
 </t>
         </is>
       </c>
